--- a/output.xlsx
+++ b/output.xlsx
@@ -14,33 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>c_office_id</t>
   </si>
   <si>
+    <t>c_office_chn</t>
+  </si>
+  <si>
     <t>c_dy</t>
   </si>
   <si>
+    <t>c_office_trans</t>
+  </si>
+  <si>
     <t>c_office_pinyin</t>
   </si>
   <si>
-    <t>c_office_chn</t>
-  </si>
-  <si>
     <t>c_source</t>
   </si>
   <si>
+    <t>僧錄司</t>
+  </si>
+  <si>
+    <t>僧錄司善世</t>
+  </si>
+  <si>
+    <t>僧錄司左善世</t>
+  </si>
+  <si>
+    <t>僧錄司右善世</t>
+  </si>
+  <si>
+    <t>僧錄司闡教</t>
+  </si>
+  <si>
+    <t>僧錄司左闡教</t>
+  </si>
+  <si>
+    <t>僧錄司右闡教</t>
+  </si>
+  <si>
+    <t>僧錄司講經</t>
+  </si>
+  <si>
+    <t>僧錄司左講經</t>
+  </si>
+  <si>
+    <t>僧錄司右講經</t>
+  </si>
+  <si>
+    <t>僧錄司覺義</t>
+  </si>
+  <si>
+    <t>僧錄司左覺義</t>
+  </si>
+  <si>
+    <t>僧錄司右覺義</t>
+  </si>
+  <si>
+    <t>府學訓導</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>The Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Buddhist Patriarch of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Left Buddhist Patriarch of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Right Buddhist Patriarch of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Left Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Right Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Lecturing Monk of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Left Lecturing Monk of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Right Lecturing Monk of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Buddhist Rectifier of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Left Buddhist Rectifier of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Right Buddhist Rectifier of the Central Buddhist Registry</t>
+  </si>
+  <si>
+    <t>Assistant Instructor in a Prefectural Confucian School</t>
+  </si>
+  <si>
     <t>seng lu si</t>
   </si>
   <si>
-    <t>僧錄司</t>
+    <t>seng lu si shan shi</t>
+  </si>
+  <si>
+    <t>seng lu si zuo shan shi</t>
+  </si>
+  <si>
+    <t>seng lu si you shan shi</t>
+  </si>
+  <si>
+    <t>seng lu si chan jiao</t>
+  </si>
+  <si>
+    <t>seng lu si zuo chan jiao</t>
+  </si>
+  <si>
+    <t>seng lu si you chan jiao</t>
+  </si>
+  <si>
+    <t>seng lu si jiang jing</t>
+  </si>
+  <si>
+    <t>seng lu si zuo jiang jing</t>
+  </si>
+  <si>
+    <t>seng lu si you jiang jing</t>
+  </si>
+  <si>
+    <t>seng lu si jue yi</t>
+  </si>
+  <si>
+    <t>seng lu si zuo jue yi</t>
+  </si>
+  <si>
+    <t>seng lu si you jue yi</t>
+  </si>
+  <si>
+    <t>fu xue xun dao</t>
   </si>
   <si>
     <t>18417</t>
+  </si>
+  <si>
+    <t>65006</t>
   </si>
 </sst>
 </file>
@@ -398,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,22 +549,288 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>802012</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>802013</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>802014</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>802015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>802016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>802017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>802018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>802019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>802020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>802021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>802022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>802023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>802024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>802025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>c_office_id</t>
   </si>
@@ -34,142 +34,28 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>僧錄司</t>
-  </si>
-  <si>
-    <t>僧錄司善世</t>
-  </si>
-  <si>
-    <t>僧錄司左善世</t>
-  </si>
-  <si>
-    <t>僧錄司右善世</t>
-  </si>
-  <si>
-    <t>僧錄司闡教</t>
-  </si>
-  <si>
-    <t>僧錄司左闡教</t>
-  </si>
-  <si>
-    <t>僧錄司右闡教</t>
-  </si>
-  <si>
-    <t>僧錄司講經</t>
-  </si>
-  <si>
-    <t>僧錄司左講經</t>
-  </si>
-  <si>
-    <t>僧錄司右講經</t>
-  </si>
-  <si>
-    <t>僧錄司覺義</t>
-  </si>
-  <si>
-    <t>僧錄司左覺義</t>
-  </si>
-  <si>
-    <t>僧錄司右覺義</t>
-  </si>
-  <si>
-    <t>府學訓導</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>土司</t>
+  </si>
+  <si>
+    <t>宣撫使/安撫使</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>The Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Buddhist Patriarch of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Left Buddhist Patriarch of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Right Buddhist Patriarch of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Left Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Right Supervisory Monk for Buddhist Practices of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Lecturing Monk of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Left Lecturing Monk of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Right Lecturing Monk of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Buddhist Rectifier of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Left Buddhist Rectifier of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Right Buddhist Rectifier of the Central Buddhist Registry</t>
-  </si>
-  <si>
-    <t>Assistant Instructor in a Prefectural Confucian School</t>
-  </si>
-  <si>
-    <t>seng lu si</t>
-  </si>
-  <si>
-    <t>seng lu si shan shi</t>
-  </si>
-  <si>
-    <t>seng lu si zuo shan shi</t>
-  </si>
-  <si>
-    <t>seng lu si you shan shi</t>
-  </si>
-  <si>
-    <t>seng lu si chan jiao</t>
-  </si>
-  <si>
-    <t>seng lu si zuo chan jiao</t>
-  </si>
-  <si>
-    <t>seng lu si you chan jiao</t>
-  </si>
-  <si>
-    <t>seng lu si jiang jing</t>
-  </si>
-  <si>
-    <t>seng lu si zuo jiang jing</t>
-  </si>
-  <si>
-    <t>seng lu si you jiang jing</t>
-  </si>
-  <si>
-    <t>seng lu si jue yi</t>
-  </si>
-  <si>
-    <t>seng lu si zuo jue yi</t>
-  </si>
-  <si>
-    <t>seng lu si you jue yi</t>
-  </si>
-  <si>
-    <t>fu xue xun dao</t>
-  </si>
-  <si>
-    <t>18417</t>
-  </si>
-  <si>
-    <t>65006</t>
+    <t>Aboriginal Office</t>
+  </si>
+  <si>
+    <t>Pacification Commission</t>
+  </si>
+  <si>
+    <t>tu si</t>
+  </si>
+  <si>
+    <t>xuan fu shi / an fu shi</t>
+  </si>
+  <si>
+    <t>65175</t>
   </si>
 </sst>
 </file>
@@ -527,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,282 +441,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>802012</v>
+        <v>802029</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>802013</v>
+        <v>802030</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>802014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>802015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>802016</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>802017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>802018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>802019</v>
-      </c>
-      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>802020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>802021</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>802022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>802023</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>802024</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>802025</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>c_office_id</t>
   </si>
@@ -34,28 +34,118 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>土司</t>
-  </si>
-  <si>
-    <t>宣撫使/安撫使</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Aboriginal Office</t>
-  </si>
-  <si>
-    <t>Pacification Commission</t>
-  </si>
-  <si>
-    <t>tu si</t>
-  </si>
-  <si>
-    <t>xuan fu shi / an fu shi</t>
-  </si>
-  <si>
-    <t>65175</t>
+    <t>太淑人</t>
+  </si>
+  <si>
+    <t>太碩人</t>
+  </si>
+  <si>
+    <t>太令人</t>
+  </si>
+  <si>
+    <t>太恭人</t>
+  </si>
+  <si>
+    <t>太宜人</t>
+  </si>
+  <si>
+    <t>太室人</t>
+  </si>
+  <si>
+    <t>太安人</t>
+  </si>
+  <si>
+    <t>太孺人</t>
+  </si>
+  <si>
+    <t>室人</t>
+  </si>
+  <si>
+    <t>提舉逐路巡檢兵甲</t>
+  </si>
+  <si>
+    <t>都大提點鑄錢等公事</t>
+  </si>
+  <si>
+    <t>三司推勘公事</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>The Second Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Third Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Fourth Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Fifth Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Sixth Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Seventh Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Eighth Level Honorific Title Granted to Mothers of Certain Officials</t>
+  </si>
+  <si>
+    <t>The Seventh Level Honorific Title Granted to Wives of Certain Officials</t>
+  </si>
+  <si>
+    <t>Director of military training,defense against banditry and police inspector in several circuits</t>
+  </si>
+  <si>
+    <t>Director of minting coins etc in several circuits</t>
+  </si>
+  <si>
+    <t>Investigator of resolving disputes about in the state marketplaces under the State Finance Commission</t>
+  </si>
+  <si>
+    <t>tai shu ren</t>
+  </si>
+  <si>
+    <t>tai shuo ren</t>
+  </si>
+  <si>
+    <t>tai ling ren</t>
+  </si>
+  <si>
+    <t>tai gong ren</t>
+  </si>
+  <si>
+    <t>tai yi ren</t>
+  </si>
+  <si>
+    <t>tai shi ren</t>
+  </si>
+  <si>
+    <t>tai an ren</t>
+  </si>
+  <si>
+    <t>tai ru ren</t>
+  </si>
+  <si>
+    <t>shi ren</t>
+  </si>
+  <si>
+    <t>ti ju zhu lu xun jian bing jia</t>
+  </si>
+  <si>
+    <t>dou da ti dian zhu qian deng gong shi</t>
+  </si>
+  <si>
+    <t>san si tui kan gong shi</t>
+  </si>
+  <si>
+    <t>2229</t>
+  </si>
+  <si>
+    <t>64848</t>
   </si>
 </sst>
 </file>
@@ -413,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,42 +531,242 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>802029</v>
+        <v>802035</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>802030</v>
+        <v>802036</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>802037</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>802038</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>802039</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>802040</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>802041</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>802042</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>802043</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>802044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>802045</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>802046</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>c_office_id</t>
   </si>
@@ -34,118 +34,58 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>太淑人</t>
-  </si>
-  <si>
-    <t>太碩人</t>
-  </si>
-  <si>
-    <t>太令人</t>
-  </si>
-  <si>
-    <t>太恭人</t>
-  </si>
-  <si>
-    <t>太宜人</t>
-  </si>
-  <si>
-    <t>太室人</t>
-  </si>
-  <si>
-    <t>太安人</t>
-  </si>
-  <si>
-    <t>太孺人</t>
-  </si>
-  <si>
-    <t>室人</t>
-  </si>
-  <si>
-    <t>提舉逐路巡檢兵甲</t>
-  </si>
-  <si>
-    <t>都大提點鑄錢等公事</t>
-  </si>
-  <si>
-    <t>三司推勘公事</t>
+    <t>南京水軍左衞</t>
+  </si>
+  <si>
+    <t>鑄印局大使</t>
+  </si>
+  <si>
+    <t>判三司戶部理欠司</t>
+  </si>
+  <si>
+    <t>徵事郎</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>The Second Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Third Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Fourth Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Fifth Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Sixth Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Seventh Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Eighth Level Honorific Title Granted to Mothers of Certain Officials</t>
-  </si>
-  <si>
-    <t>The Seventh Level Honorific Title Granted to Wives of Certain Officials</t>
-  </si>
-  <si>
-    <t>Director of military training,defense against banditry and police inspector in several circuits</t>
-  </si>
-  <si>
-    <t>Director of minting coins etc in several circuits</t>
-  </si>
-  <si>
-    <t>Investigator of resolving disputes about in the state marketplaces under the State Finance Commission</t>
-  </si>
-  <si>
-    <t>tai shu ren</t>
-  </si>
-  <si>
-    <t>tai shuo ren</t>
-  </si>
-  <si>
-    <t>tai ling ren</t>
-  </si>
-  <si>
-    <t>tai gong ren</t>
-  </si>
-  <si>
-    <t>tai yi ren</t>
-  </si>
-  <si>
-    <t>tai shi ren</t>
-  </si>
-  <si>
-    <t>tai an ren</t>
-  </si>
-  <si>
-    <t>tai ru ren</t>
-  </si>
-  <si>
-    <t>shi ren</t>
-  </si>
-  <si>
-    <t>ti ju zhu lu xun jian bing jia</t>
-  </si>
-  <si>
-    <t>dou da ti dian zhu qian deng gong shi</t>
-  </si>
-  <si>
-    <t>san si tui kan gong shi</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Left Guard of Nanking Navy</t>
+  </si>
+  <si>
+    <t>Commissioner of Seals Service</t>
+  </si>
+  <si>
+    <t>Supervisor of the Deficits Monitoring Office of the Census Bureau in the State Finance Commission</t>
+  </si>
+  <si>
+    <t>One of Prestige Titles (Civil)（Rank 8 ，upper class，lower grade）</t>
+  </si>
+  <si>
+    <t>nan jing shui jun zuo wei</t>
+  </si>
+  <si>
+    <t>zhu yin ju da shi</t>
+  </si>
+  <si>
+    <t>pan san si hu bu li qian si</t>
+  </si>
+  <si>
+    <t>zheng shi lang</t>
+  </si>
+  <si>
+    <t>2067</t>
   </si>
   <si>
     <t>2229</t>
   </si>
   <si>
-    <t>64848</t>
+    <t>24844</t>
   </si>
 </sst>
 </file>
@@ -503,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,242 +471,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>802035</v>
+        <v>802049</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>802036</v>
+        <v>802050</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>802037</v>
+        <v>802051</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>802038</v>
+        <v>802052</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>802039</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>802040</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>802041</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>802042</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>802043</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>802044</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>802045</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>802046</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>c_office_id</t>
   </si>
@@ -34,9 +34,6 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>南京水軍左衞</t>
-  </si>
-  <si>
     <t>鑄印局大使</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Left Guard of Nanking Navy</t>
-  </si>
-  <si>
     <t>Commissioner of Seals Service</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>One of Prestige Titles (Civil)（Rank 8 ，upper class，lower grade）</t>
-  </si>
-  <si>
-    <t>nan jing shui jun zuo wei</t>
   </si>
   <si>
     <t>zhu yin ju da shi</t>
@@ -443,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +468,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,13 +491,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,33 +511,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>802052</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>c_office_id</t>
   </si>
@@ -34,49 +34,19 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>鑄印局大使</t>
-  </si>
-  <si>
-    <t>判三司戶部理欠司</t>
-  </si>
-  <si>
-    <t>徵事郎</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Commissioner of Seals Service</t>
-  </si>
-  <si>
-    <t>Supervisor of the Deficits Monitoring Office of the Census Bureau in the State Finance Commission</t>
-  </si>
-  <si>
-    <t>One of Prestige Titles (Civil)（Rank 8 ，upper class，lower grade）</t>
-  </si>
-  <si>
-    <t>zhu yin ju da shi</t>
-  </si>
-  <si>
-    <t>pan san si hu bu li qian si</t>
-  </si>
-  <si>
-    <t>zheng shi lang</t>
+    <t>宣慰使司都元帥府參謀</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Counselor of the Chief Military Command</t>
+  </si>
+  <si>
+    <t>xuan wei shi si dou yuan shuai fu can mou</t>
   </si>
   <si>
     <t>2067</t>
-  </si>
-  <si>
-    <t>2229</t>
-  </si>
-  <si>
-    <t>24844</t>
   </si>
 </sst>
 </file>
@@ -434,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,62 +432,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>802049</v>
+        <v>803728</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>802050</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>802051</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -34,19 +34,19 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>宣慰使司都元帥府參謀</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Counselor of the Chief Military Command</t>
-  </si>
-  <si>
-    <t>xuan wei shi si dou yuan shuai fu can mou</t>
-  </si>
-  <si>
-    <t>2067</t>
+    <t>送伴使</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Parting Commissioner（Tackett）</t>
+  </si>
+  <si>
+    <t>song ban shi</t>
+  </si>
+  <si>
+    <t>66675</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>803728</v>
+        <v>803734</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -34,16 +34,16 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>送伴使</t>
+    <t>押宴官</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Parting Commissioner（Tackett）</t>
-  </si>
-  <si>
-    <t>song ban shi</t>
+    <t>Banquet Master of Ceremonies(Tackett)</t>
+  </si>
+  <si>
+    <t>ya yan guan</t>
   </si>
   <si>
     <t>66675</t>
@@ -432,7 +432,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>803734</v>
+        <v>803736</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>c_office_id</t>
-  </si>
-  <si>
-    <t>c_office_chn</t>
-  </si>
-  <si>
-    <t>c_dy</t>
-  </si>
-  <si>
-    <t>c_office_trans</t>
-  </si>
-  <si>
-    <t>c_office_pinyin</t>
-  </si>
-  <si>
-    <t>c_source</t>
-  </si>
-  <si>
-    <t>押宴官</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Banquet Master of Ceremonies(Tackett)</t>
-  </si>
-  <si>
-    <t>ya yan guan</t>
-  </si>
-  <si>
-    <t>66675</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,54 +420,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_chn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c_dy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_trans</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_pinyin</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c_source</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>803736</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>803737</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>國史實錄院校勘</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unranked Subofficials attached to the Historiography and True Records Institute</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>guo shi shi lu yuan jiao kan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>803738</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>諸王宮伴讀</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reader-companion of Princely Palaces</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>zhu wang gong ban du</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>64847</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,61 +467,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803737</v>
+        <v>803739</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>國史實錄院校勘</t>
+          <t>直御書處</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unranked Subofficials attached to the Historiography and True Records Institute</t>
+          <t>Auxiliary in the Imperial Library</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>guo shi shi lu yuan jiao kan</t>
+          <t>zhi yu shu chu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>17477</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>803738</v>
+        <v>803740</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>諸王宮伴讀</t>
+          <t>提學副使</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Reader-companion of Princely Palaces</t>
+          <t>Vice Commissioner of an Education Intendant Circuit</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>zhu wang gong ban du</t>
+          <t>ti xue fu shi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>2067</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>803741</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>世職一等阿達哈哈番</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hereditary Title of Commandant of Light Chariots</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>shi zhi yi deng a da ha ha fan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2067</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>c_office_id</t>
+  </si>
+  <si>
+    <t>c_office_chn</t>
+  </si>
+  <si>
+    <t>c_dy</t>
+  </si>
+  <si>
+    <t>c_office_trans</t>
+  </si>
+  <si>
+    <t>c_office_pinyin</t>
+  </si>
+  <si>
+    <t>c_source</t>
+  </si>
+  <si>
+    <t>北京地方審判廳候補推事</t>
+  </si>
+  <si>
+    <t>南京兵部職方司主事</t>
+  </si>
+  <si>
+    <t>騰驤右衛經歷</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Assistant Judicial Supervisor of the Northern Capital District of Lin\'an Prefecture</t>
+  </si>
+  <si>
+    <t>Secretary of the Bureau of Operations of the Ministry of War</t>
+  </si>
+  <si>
+    <t>Registrar in the Right Guard of Lin\'an Prefecture</t>
+  </si>
+  <si>
+    <t>bei jing di fang shen pan ting hou bu tui shi</t>
+  </si>
+  <si>
+    <t>nan jing bing bu zhi fang si zhu shi</t>
+  </si>
+  <si>
+    <t>teng xiang you wei jing li</t>
+  </si>
+  <si>
+    <t>59645</t>
+  </si>
+  <si>
+    <t>67015</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,142 +427,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>c_office_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>c_office_chn</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>c_dy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>c_office_trans</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>c_office_pinyin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>c_source</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>803739</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>直御書處</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Auxiliary in the Imperial Library</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>zhi yu shu chu</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17477</t>
-        </is>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>803749</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>803740</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>提學副使</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Vice Commissioner of an Education Intendant Circuit</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ti xue fu shi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>803750</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>803741</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>世職一等阿達哈哈番</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hereditary Title of Commandant of Light Chariots</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>shi zhi yi deng a da ha ha fan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2067</t>
-        </is>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>803751</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>c_office_id</t>
-  </si>
-  <si>
-    <t>c_office_chn</t>
-  </si>
-  <si>
-    <t>c_dy</t>
-  </si>
-  <si>
-    <t>c_office_trans</t>
-  </si>
-  <si>
-    <t>c_office_pinyin</t>
-  </si>
-  <si>
-    <t>c_source</t>
-  </si>
-  <si>
-    <t>北京地方審判廳候補推事</t>
-  </si>
-  <si>
-    <t>南京兵部職方司主事</t>
-  </si>
-  <si>
-    <t>騰驤右衛經歷</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Assistant Judicial Supervisor of the Northern Capital District of Lin\'an Prefecture</t>
-  </si>
-  <si>
-    <t>Secretary of the Bureau of Operations of the Ministry of War</t>
-  </si>
-  <si>
-    <t>Registrar in the Right Guard of Lin\'an Prefecture</t>
-  </si>
-  <si>
-    <t>bei jing di fang shen pan ting hou bu tui shi</t>
-  </si>
-  <si>
-    <t>nan jing bing bu zhi fang si zhu shi</t>
-  </si>
-  <si>
-    <t>teng xiang you wei jing li</t>
-  </si>
-  <si>
-    <t>59645</t>
-  </si>
-  <si>
-    <t>67015</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,94 +420,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_chn</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c_dy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_trans</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c_office_pinyin</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c_source</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>803749</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>803750</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>803751</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>803752</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>布政司經歷</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Registrar in a Provincial Administration Commission</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bu zheng si jing li</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>67015</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803752</v>
+        <v>803753</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>布政司經歷</t>
+          <t>復設訓導</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,17 +481,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Registrar in a Provincial Administration Commission</t>
+          <t>[Not Yet Translated]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bu zheng si jing li</t>
+          <t>fu she xun dao</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67015</t>
+          <t>67147</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>803754</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>復設教諭</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fu she jiao yu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>67147</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803753</v>
+        <v>803755</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>復設訓導</t>
+          <t>茶酒庫副使</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,27 +486,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fu she xun dao</t>
+          <t>cha jiu ku fu shi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67147</t>
+          <t>67210</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>803754</v>
+        <v>803756</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>復設教諭</t>
+          <t>禮賓副使</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +516,1152 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fu she jiao yu</t>
+          <t>li bin fu shi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67147</t>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>803757</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>尚書左丞</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>shang shu zuo cheng</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>803758</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>禮部侍郞</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>li bu shi lang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>803759</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>監門衛大將軍</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jian men wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>803760</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>驍衛上將軍</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>xiao wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>803761</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>知客省使</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>zhi ke sheng shi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>803762</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>殿中監</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dian zhong jian</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>803763</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>殿中少監</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dian zhong shao jian</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>803764</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>左金吾衛上將軍</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>zuo jin wu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>803765</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>右金吾衛上將軍</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>you jin wu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>803766</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>右金吾衛將軍</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>you jin wu wei jiang jun</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>803767</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>左武衛上將軍</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>zuo wu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>803768</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>左監門衛大將軍</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>zuo jian men wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>803769</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>左監門衛上將軍</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>zuo jian men wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>803770</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>左監門衛將軍</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>zuo jian men wei jiang jun</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>803771</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>右監門衛將軍</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>you jian men wei jiang jun</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>803772</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>右監門衛大將軍</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>you jian men wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>803773</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>右監門上將軍</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>you jian men shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>803774</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>右監門衛上將軍</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>you jian men wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>803775</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>左領軍衛上將軍</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zuo ling jun wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>803776</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>左威衛大將軍</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>zuo wei wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>803777</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>左驍衛大將軍</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>zuo xiao wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>803778</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>右衛上將軍</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>you wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>803779</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>右威衛上將軍</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>you wei wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>803780</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>左衛大將軍</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>zuo wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>803781</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>右衛大將軍</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>you wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>803782</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>右千牛衛上將軍</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>you qian niu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>803783</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>左千牛衛上將軍</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>zuo qian niu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>803784</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>右千牛衛大將軍</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>you qian niu wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>803785</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>右散騎常侍</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>you san qi chang shi</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>803786</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>左驍衛上將軍</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>zuo xiao wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>803787</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>右驍衛大將軍</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>you xiao wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>803788</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>左威衛上將軍</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>zuo wei wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>803789</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>右威衛大將軍</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>you wei wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>803790</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>右武衛上將軍</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>you wu wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>803791</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>左領軍衛大將軍</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>zuo ling jun wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>803792</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>左鎮軍衛大將軍</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>zuo zhen jun wei da jiang jun</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>803793</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>右領軍衛上將軍</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>you ling jun wei shang jiang jun</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>67210</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>803794</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>右宣徽使</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[Not Yet Translated]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>you xuan hui shi</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>67210</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,31 +467,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803795</v>
+        <v>803796</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特進</t>
+          <t>榷礬都務使</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lord Specially Advanced</t>
+          <t>Commissioner of Alum</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>te jin</t>
+          <t>que fan dou wu shi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60745</t>
+          <t>64847</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>803797</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>稻田都務使</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Commissioner of Rice Field</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dao tian dou wu shi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>64847</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>803798</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>榷鹽制置判官</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Salt Monopoly Vice-commissioner</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>que yan zhi zhi pan guan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>64847</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803796</v>
+        <v>803799</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>榷礬都務使</t>
+          <t>堤河使</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Commissioner of Alum</t>
+          <t>Commissioner of Dams and rivers</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>que fan dou wu shi</t>
+          <t>di he shi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,11 +497,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>803797</v>
+        <v>803800</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>稻田都務使</t>
+          <t>神衛左廂都指揮使</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Commissioner of Rice Field</t>
+          <t>Commander-in-chief of the Left Inspired Guard Wing</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dao tian dou wu shi</t>
+          <t>shen wei zuo xiang dou zhi hui shi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,11 +527,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>803798</v>
+        <v>803801</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>榷鹽制置判官</t>
+          <t>神衛右廂都指揮使</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,15 +541,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Salt Monopoly Vice-commissioner</t>
+          <t>Commander-in-chief of the Right Inspired Guard Wing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>que yan zhi zhi pan guan</t>
+          <t>shen wei you xiang dou zhi hui shi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>64847</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>803802</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>侍衛親軍馬軍司都指揮使</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Commander-in-chief of the Metropolitan Cavalry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>shi wei qin jun ma jun si dou zhi hui shi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>64847</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,121 +467,241 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803799</v>
+        <v>803803</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>堤河使</t>
+          <t>布政使</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Commissioner of Dams and rivers</t>
+          <t>Provincial Administration Commissioner</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>di he shi</t>
+          <t>bu zheng shi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>67822</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>803800</v>
+        <v>803804</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>神衛左廂都指揮使</t>
+          <t>書吏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Commander-in-chief of the Left Inspired Guard Wing</t>
+          <t>Clerk</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>shen wei zuo xiang dou zhi hui shi</t>
+          <t>shu li</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>67822</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>803801</v>
+        <v>803805</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>神衛右廂都指揮使</t>
+          <t>經承</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Commander-in-chief of the Right Inspired Guard Wing</t>
+          <t>Assignee</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>shen wei you xiang dou zhi hui shi</t>
+          <t>jing cheng</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>67822</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>803802</v>
+        <v>803806</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>侍衛親軍馬軍司都指揮使</t>
+          <t>教坊司左司樂</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Commander-in-chief of the Metropolitan Cavalry</t>
+          <t>Left Music Director</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>shi wei qin jun ma jun si dou zhi hui shi</t>
+          <t>jiao fang si zuo si le</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64847</t>
+          <t>67822</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>803807</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>教坊司右司樂</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Right Music Director</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jiao fang si you si le</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>67822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>803808</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>教坊司奉鑾</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>provider of carriage bells</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>jiao fang si feng luan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>67822</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>803809</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>翊國公</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Duke of Yi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>yi guo gong</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>67822</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>803810</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>通議大夫</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Grand Master for Thorough Council</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>tong yi dai fu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>67822</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803803</v>
+        <v>803812</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>布政使</t>
+          <t>河通判</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,227 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Provincial Administration Commissioner</t>
+          <t>Assistant Perfect of rivers</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bu zheng shi</t>
+          <t>he tong pan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>803804</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>書吏</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Clerk</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>shu li</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>803805</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>經承</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Assignee</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>jing cheng</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>803806</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>教坊司左司樂</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Left Music Director</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>jiao fang si zuo si le</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>803807</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>教坊司右司樂</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Right Music Director</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>jiao fang si you si le</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>803808</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>教坊司奉鑾</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>provider of carriage bells</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>jiao fang si feng luan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>803809</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>翊國公</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Duke of Yi</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>yi guo gong</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>67822</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>803810</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>通議大夫</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Grand Master for Thorough Council</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>tong yi dai fu</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>67822</t>
+          <t>2510</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803812</v>
+        <v>803813</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>河通判</t>
+          <t>中憲大夫</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,17 +481,137 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Assistant Perfect of rivers</t>
+          <t>Grand Master Exemplar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>he tong pan</t>
+          <t>zhong xian da fu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>68002</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>803814</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>奉直大夫</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Grand Master for Forthright Service (Hucker)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>feng zhi da fu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>803815</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>太醫院吏目</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Medical Secretary in the Imperial Academy of Medicine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>tai yi yuan li mu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>803816</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>遊擊將軍</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mobile Corps Commander (Hucker)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>you ji jiang jun</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>803817</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鎮同知</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vice Prefect of a Town</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>zhen tong zhi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>68002</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>803813</v>
+        <v>803818</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中憲大夫</t>
+          <t>宗人府供事</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,137 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Grand Master Exemplar</t>
+          <t>Clerk in the Imperial Clan Court</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>zhong xian da fu</t>
+          <t>zong ren fu gong shi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68002</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>803814</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>奉直大夫</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Grand Master for Forthright Service (Hucker)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>feng zhi da fu</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>803815</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>太醫院吏目</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Medical Secretary in the Imperial Academy of Medicine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>tai yi yuan li mu</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>803816</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>遊擊將軍</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mobile Corps Commander (Hucker)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>you ji jiang jun</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>803817</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>鎮同知</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vice Prefect of a Town</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>zhen tong zhi</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>68002</t>
         </is>
       </c>
     </row>
